--- a/VIDA2/data/VITORIA.xlsx
+++ b/VIDA2/data/VITORIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>attacked</t>
+          <t>females</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>denounce</t>
+          <t>Attacks per female</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>females</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Attacks per female</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Denounces per female</t>
         </is>
@@ -469,22 +459,18 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>3201308005001</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3201308005001</t>
+        </is>
       </c>
       <c r="C2" t="n">
-        <v>1.736</v>
+        <v>14.626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.632</v>
+        <v>124.0268388710596</v>
       </c>
       <c r="E2" t="n">
-        <v>14.626</v>
-      </c>
-      <c r="F2" t="n">
-        <v>124.0268388710596</v>
-      </c>
-      <c r="G2" t="n">
         <v>45.00798408386305</v>
       </c>
     </row>
@@ -492,22 +478,18 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>3201308005002</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3201308005002</t>
+        </is>
       </c>
       <c r="C3" t="n">
-        <v>3.368</v>
+        <v>26.92</v>
       </c>
       <c r="D3" t="n">
-        <v>1.318</v>
+        <v>127.0525055362634</v>
       </c>
       <c r="E3" t="n">
-        <v>26.92</v>
-      </c>
-      <c r="F3" t="n">
-        <v>127.0525055362634</v>
-      </c>
-      <c r="G3" t="n">
         <v>49.25194783976622</v>
       </c>
     </row>
@@ -515,22 +497,18 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>3201308005003</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3201308005003</t>
+        </is>
       </c>
       <c r="C4" t="n">
-        <v>3.222</v>
+        <v>24.37</v>
       </c>
       <c r="D4" t="n">
-        <v>1.084</v>
+        <v>134.7841291399787</v>
       </c>
       <c r="E4" t="n">
-        <v>24.37</v>
-      </c>
-      <c r="F4" t="n">
-        <v>134.7841291399787</v>
-      </c>
-      <c r="G4" t="n">
         <v>45.93380567112403</v>
       </c>
     </row>
@@ -538,22 +516,18 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3201308005004</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3201308005004</t>
+        </is>
       </c>
       <c r="C5" t="n">
-        <v>4.3</v>
+        <v>31.574</v>
       </c>
       <c r="D5" t="n">
-        <v>1.538</v>
+        <v>138.1818909626804</v>
       </c>
       <c r="E5" t="n">
-        <v>31.574</v>
-      </c>
-      <c r="F5" t="n">
-        <v>138.1818909626804</v>
-      </c>
-      <c r="G5" t="n">
         <v>49.30881091201766</v>
       </c>
     </row>
@@ -561,22 +535,18 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>3201308005005</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3201308005005</t>
+        </is>
       </c>
       <c r="C6" t="n">
-        <v>2.108</v>
+        <v>16.41</v>
       </c>
       <c r="D6" t="n">
-        <v>0.746</v>
+        <v>130.792340482218</v>
       </c>
       <c r="E6" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="F6" t="n">
-        <v>130.792340482218</v>
-      </c>
-      <c r="G6" t="n">
         <v>46.00107677932185</v>
       </c>
     </row>
@@ -584,22 +554,18 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>3201308005006</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>3201308005006</t>
+        </is>
       </c>
       <c r="C7" t="n">
-        <v>4.546</v>
+        <v>35.288</v>
       </c>
       <c r="D7" t="n">
-        <v>1.61</v>
+        <v>129.8454555431875</v>
       </c>
       <c r="E7" t="n">
-        <v>35.288</v>
-      </c>
-      <c r="F7" t="n">
-        <v>129.8454555431875</v>
-      </c>
-      <c r="G7" t="n">
         <v>46.09958076802109</v>
       </c>
     </row>
@@ -607,22 +573,18 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>3201308005007</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3201308005007</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>2.244</v>
+        <v>16.77</v>
       </c>
       <c r="D8" t="n">
-        <v>0.778</v>
+        <v>138.8652521621046</v>
       </c>
       <c r="E8" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="F8" t="n">
-        <v>138.8652521621046</v>
-      </c>
-      <c r="G8" t="n">
         <v>47.40601734779449</v>
       </c>
     </row>
@@ -630,22 +592,18 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>3201308005008</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3201308005008</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>1.874</v>
+        <v>15.242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.65</v>
+        <v>129.0272050165175</v>
       </c>
       <c r="E9" t="n">
-        <v>15.242</v>
-      </c>
-      <c r="F9" t="n">
-        <v>129.0272050165175</v>
-      </c>
-      <c r="G9" t="n">
         <v>44.90773620469146</v>
       </c>
     </row>
@@ -653,22 +611,18 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>3201308005009</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3201308005009</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>2.384</v>
+        <v>19.492</v>
       </c>
       <c r="D10" t="n">
-        <v>0.822</v>
+        <v>125.3784134190113</v>
       </c>
       <c r="E10" t="n">
-        <v>19.492</v>
-      </c>
-      <c r="F10" t="n">
-        <v>125.3784134190113</v>
-      </c>
-      <c r="G10" t="n">
         <v>43.68999592114029</v>
       </c>
     </row>
@@ -676,22 +630,18 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>3201308005010</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3201308005010</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>3.838</v>
+        <v>31.506</v>
       </c>
       <c r="D11" t="n">
-        <v>1.418</v>
+        <v>123.6057135766939</v>
       </c>
       <c r="E11" t="n">
-        <v>31.506</v>
-      </c>
-      <c r="F11" t="n">
-        <v>123.6057135766939</v>
-      </c>
-      <c r="G11" t="n">
         <v>45.68219473608556</v>
       </c>
     </row>
@@ -699,22 +649,18 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>3201308005011</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3201308005011</t>
+        </is>
       </c>
       <c r="C12" t="n">
-        <v>2.46</v>
+        <v>18.534</v>
       </c>
       <c r="D12" t="n">
-        <v>0.886</v>
+        <v>136.3655833657578</v>
       </c>
       <c r="E12" t="n">
-        <v>18.534</v>
-      </c>
-      <c r="F12" t="n">
-        <v>136.3655833657578</v>
-      </c>
-      <c r="G12" t="n">
         <v>49.51538269179942</v>
       </c>
     </row>
@@ -722,22 +668,18 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>3201308005012</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3201308005012</t>
+        </is>
       </c>
       <c r="C13" t="n">
-        <v>2.952</v>
+        <v>22.254</v>
       </c>
       <c r="D13" t="n">
-        <v>1.058</v>
+        <v>135.1548516587625</v>
       </c>
       <c r="E13" t="n">
-        <v>22.254</v>
-      </c>
-      <c r="F13" t="n">
-        <v>135.1548516587625</v>
-      </c>
-      <c r="G13" t="n">
         <v>47.7541894076135</v>
       </c>
     </row>
@@ -745,22 +687,18 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>3201308005013</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3201308005013</t>
+        </is>
       </c>
       <c r="C14" t="n">
-        <v>3.49</v>
+        <v>26.424</v>
       </c>
       <c r="D14" t="n">
-        <v>1.268</v>
+        <v>133.4499499567144</v>
       </c>
       <c r="E14" t="n">
-        <v>26.424</v>
-      </c>
-      <c r="F14" t="n">
-        <v>133.4499499567144</v>
-      </c>
-      <c r="G14" t="n">
         <v>48.37182755779657</v>
       </c>
     </row>
@@ -768,22 +706,18 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>3201308005014</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>3201308005014</t>
+        </is>
       </c>
       <c r="C15" t="n">
-        <v>2.026</v>
+        <v>16.094</v>
       </c>
       <c r="D15" t="n">
-        <v>0.714</v>
+        <v>129.5133648877353</v>
       </c>
       <c r="E15" t="n">
-        <v>16.094</v>
-      </c>
-      <c r="F15" t="n">
-        <v>129.5133648877353</v>
-      </c>
-      <c r="G15" t="n">
         <v>46.30315696670221</v>
       </c>
     </row>
@@ -791,22 +725,18 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>3201308005015</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3201308005015</t>
+        </is>
       </c>
       <c r="C16" t="n">
-        <v>2.82</v>
+        <v>21.29</v>
       </c>
       <c r="D16" t="n">
-        <v>0.988</v>
+        <v>132.9647709550742</v>
       </c>
       <c r="E16" t="n">
-        <v>21.29</v>
-      </c>
-      <c r="F16" t="n">
-        <v>132.9647709550742</v>
-      </c>
-      <c r="G16" t="n">
         <v>47.19815646032588</v>
       </c>
     </row>
@@ -814,22 +744,18 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>3202405003001</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>3202405003001</t>
+        </is>
       </c>
       <c r="C17" t="n">
-        <v>1.73</v>
+        <v>14.19</v>
       </c>
       <c r="D17" t="n">
-        <v>0.644</v>
+        <v>125.7377416085109</v>
       </c>
       <c r="E17" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="F17" t="n">
-        <v>125.7377416085109</v>
-      </c>
-      <c r="G17" t="n">
         <v>47.7884281534113</v>
       </c>
     </row>
@@ -837,22 +763,18 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>3202405003002</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3202405003002</t>
+        </is>
       </c>
       <c r="C18" t="n">
-        <v>2.018</v>
+        <v>16.398</v>
       </c>
       <c r="D18" t="n">
-        <v>0.724</v>
+        <v>126.9461691346084</v>
       </c>
       <c r="E18" t="n">
-        <v>16.398</v>
-      </c>
-      <c r="F18" t="n">
-        <v>126.9461691346084</v>
-      </c>
-      <c r="G18" t="n">
         <v>44.76065672167206</v>
       </c>
     </row>
@@ -860,22 +782,18 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>3202405003003</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3202405003003</t>
+        </is>
       </c>
       <c r="C19" t="n">
-        <v>1.558</v>
+        <v>13.176</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6</v>
+        <v>122.9307958691523</v>
       </c>
       <c r="E19" t="n">
-        <v>13.176</v>
-      </c>
-      <c r="F19" t="n">
-        <v>122.9307958691523</v>
-      </c>
-      <c r="G19" t="n">
         <v>47.30009254292471</v>
       </c>
     </row>
@@ -883,22 +801,18 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>3202405003004</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3202405003004</t>
+        </is>
       </c>
       <c r="C20" t="n">
-        <v>1.982</v>
+        <v>15.75</v>
       </c>
       <c r="D20" t="n">
-        <v>0.726</v>
+        <v>131.7377439284466</v>
       </c>
       <c r="E20" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="F20" t="n">
-        <v>131.7377439284466</v>
-      </c>
-      <c r="G20" t="n">
         <v>47.88853365648428</v>
       </c>
     </row>
@@ -906,22 +820,18 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>3202405003005</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3202405003005</t>
+        </is>
       </c>
       <c r="C21" t="n">
-        <v>2.312</v>
+        <v>16.858</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8159999999999999</v>
+        <v>137.7916582446899</v>
       </c>
       <c r="E21" t="n">
-        <v>16.858</v>
-      </c>
-      <c r="F21" t="n">
-        <v>137.7916582446899</v>
-      </c>
-      <c r="G21" t="n">
         <v>48.88232572255863</v>
       </c>
     </row>
@@ -929,22 +839,18 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>3202405003006</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3202405003006</t>
+        </is>
       </c>
       <c r="C22" t="n">
-        <v>3.554</v>
+        <v>26.662</v>
       </c>
       <c r="D22" t="n">
-        <v>1.268</v>
+        <v>136.3029151376065</v>
       </c>
       <c r="E22" t="n">
-        <v>26.662</v>
-      </c>
-      <c r="F22" t="n">
-        <v>136.3029151376065</v>
-      </c>
-      <c r="G22" t="n">
         <v>48.48428921600397</v>
       </c>
     </row>
@@ -952,22 +858,18 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>3205002005001</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3205002005001</t>
+        </is>
       </c>
       <c r="C23" t="n">
-        <v>2.374</v>
+        <v>18.616</v>
       </c>
       <c r="D23" t="n">
-        <v>0.886</v>
+        <v>130.2967815638588</v>
       </c>
       <c r="E23" t="n">
-        <v>18.616</v>
-      </c>
-      <c r="F23" t="n">
-        <v>130.2967815638588</v>
-      </c>
-      <c r="G23" t="n">
         <v>48.47783920532849</v>
       </c>
     </row>
@@ -975,22 +877,18 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>3205002005002</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3205002005002</t>
+        </is>
       </c>
       <c r="C24" t="n">
-        <v>3.208</v>
+        <v>25.3</v>
       </c>
       <c r="D24" t="n">
-        <v>1.138</v>
+        <v>128.3445739722096</v>
       </c>
       <c r="E24" t="n">
-        <v>25.3</v>
-      </c>
-      <c r="F24" t="n">
-        <v>128.3445739722096</v>
-      </c>
-      <c r="G24" t="n">
         <v>44.9489260324574</v>
       </c>
     </row>
@@ -998,22 +896,18 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>3205002005003</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3205002005003</t>
+        </is>
       </c>
       <c r="C25" t="n">
-        <v>2.746</v>
+        <v>21.71</v>
       </c>
       <c r="D25" t="n">
-        <v>0.996</v>
+        <v>129.3630630023528</v>
       </c>
       <c r="E25" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="F25" t="n">
-        <v>129.3630630023528</v>
-      </c>
-      <c r="G25" t="n">
         <v>46.73669975346967</v>
       </c>
     </row>
@@ -1021,22 +915,18 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>3205002005004</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3205002005004</t>
+        </is>
       </c>
       <c r="C26" t="n">
-        <v>1.708</v>
+        <v>13.212</v>
       </c>
       <c r="D26" t="n">
-        <v>0.612</v>
+        <v>133.3137536578377</v>
       </c>
       <c r="E26" t="n">
-        <v>13.212</v>
-      </c>
-      <c r="F26" t="n">
-        <v>133.3137536578377</v>
-      </c>
-      <c r="G26" t="n">
         <v>48.03919536775578</v>
       </c>
     </row>
@@ -1044,22 +934,18 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>3205002005005</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>3205002005005</t>
+        </is>
       </c>
       <c r="C27" t="n">
-        <v>1.868</v>
+        <v>15.148</v>
       </c>
       <c r="D27" t="n">
-        <v>0.636</v>
+        <v>129.1940238383228</v>
       </c>
       <c r="E27" t="n">
-        <v>15.148</v>
-      </c>
-      <c r="F27" t="n">
-        <v>129.1940238383228</v>
-      </c>
-      <c r="G27" t="n">
         <v>44.32042729683903</v>
       </c>
     </row>
@@ -1067,22 +953,18 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>3205002005006</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3205002005006</t>
+        </is>
       </c>
       <c r="C28" t="n">
-        <v>2.268</v>
+        <v>18.704</v>
       </c>
       <c r="D28" t="n">
-        <v>0.78</v>
+        <v>123.8271866519757</v>
       </c>
       <c r="E28" t="n">
-        <v>18.704</v>
-      </c>
-      <c r="F28" t="n">
-        <v>123.8271866519757</v>
-      </c>
-      <c r="G28" t="n">
         <v>42.39122972479444</v>
       </c>
     </row>
@@ -1090,22 +972,18 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>3205002005007</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>3205002005007</t>
+        </is>
       </c>
       <c r="C29" t="n">
-        <v>1.85</v>
+        <v>15.54</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6</v>
+        <v>124.1527810890794</v>
       </c>
       <c r="E29" t="n">
-        <v>15.54</v>
-      </c>
-      <c r="F29" t="n">
-        <v>124.1527810890794</v>
-      </c>
-      <c r="G29" t="n">
         <v>40.53440793610597</v>
       </c>
     </row>
@@ -1113,22 +991,18 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>3205002005008</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>3205002005008</t>
+        </is>
       </c>
       <c r="C30" t="n">
-        <v>1.928</v>
+        <v>14.314</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7</v>
+        <v>138.261105514787</v>
       </c>
       <c r="E30" t="n">
-        <v>14.314</v>
-      </c>
-      <c r="F30" t="n">
-        <v>138.261105514787</v>
-      </c>
-      <c r="G30" t="n">
         <v>50.30259004071557</v>
       </c>
     </row>
@@ -1136,22 +1010,18 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>3205002005009</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3205002005009</t>
+        </is>
       </c>
       <c r="C31" t="n">
-        <v>3.3</v>
+        <v>26.854</v>
       </c>
       <c r="D31" t="n">
-        <v>1.164</v>
+        <v>124.6238193594276</v>
       </c>
       <c r="E31" t="n">
-        <v>26.854</v>
-      </c>
-      <c r="F31" t="n">
-        <v>124.6238193594276</v>
-      </c>
-      <c r="G31" t="n">
         <v>44.07805914449308</v>
       </c>
     </row>
@@ -1159,22 +1029,18 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>3205002005010</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>3205002005010</t>
+        </is>
       </c>
       <c r="C32" t="n">
-        <v>2.106</v>
+        <v>17.1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.766</v>
+        <v>125.5376343365218</v>
       </c>
       <c r="E32" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F32" t="n">
-        <v>125.5376343365218</v>
-      </c>
-      <c r="G32" t="n">
         <v>46.68011051613472</v>
       </c>
     </row>
@@ -1182,22 +1048,18 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>3205002005011</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>3205002005011</t>
+        </is>
       </c>
       <c r="C33" t="n">
-        <v>2.67</v>
+        <v>21.974</v>
       </c>
       <c r="D33" t="n">
-        <v>0.95</v>
+        <v>123.9547021244726</v>
       </c>
       <c r="E33" t="n">
-        <v>21.974</v>
-      </c>
-      <c r="F33" t="n">
-        <v>123.9547021244726</v>
-      </c>
-      <c r="G33" t="n">
         <v>43.84428802582991</v>
       </c>
     </row>
@@ -1205,22 +1067,18 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>3205002005012</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>3205002005012</t>
+        </is>
       </c>
       <c r="C34" t="n">
-        <v>1.97</v>
+        <v>16.194</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6820000000000001</v>
+        <v>125.6169452034333</v>
       </c>
       <c r="E34" t="n">
-        <v>16.194</v>
-      </c>
-      <c r="F34" t="n">
-        <v>125.6169452034333</v>
-      </c>
-      <c r="G34" t="n">
         <v>42.73538273238701</v>
       </c>
     </row>
@@ -1228,22 +1086,18 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>3205002005013</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>3205002005013</t>
+        </is>
       </c>
       <c r="C35" t="n">
-        <v>1.868</v>
+        <v>14.624</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6899999999999999</v>
+        <v>130.6225480849448</v>
       </c>
       <c r="E35" t="n">
-        <v>14.624</v>
-      </c>
-      <c r="F35" t="n">
-        <v>130.6225480849448</v>
-      </c>
-      <c r="G35" t="n">
         <v>48.65928303685065</v>
       </c>
     </row>
@@ -1251,22 +1105,18 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>3205002005014</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3205002005014</t>
+        </is>
       </c>
       <c r="C36" t="n">
-        <v>2.832</v>
+        <v>22.286</v>
       </c>
       <c r="D36" t="n">
-        <v>1.038</v>
+        <v>130.5525681731993</v>
       </c>
       <c r="E36" t="n">
-        <v>22.286</v>
-      </c>
-      <c r="F36" t="n">
-        <v>130.5525681731993</v>
-      </c>
-      <c r="G36" t="n">
         <v>48.231251607267</v>
       </c>
     </row>
@@ -1274,22 +1124,18 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>3205002005015</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3205002005015</t>
+        </is>
       </c>
       <c r="C37" t="n">
-        <v>3.258</v>
+        <v>25.09</v>
       </c>
       <c r="D37" t="n">
-        <v>1.17</v>
+        <v>131.4998001159481</v>
       </c>
       <c r="E37" t="n">
-        <v>25.09</v>
-      </c>
-      <c r="F37" t="n">
-        <v>131.4998001159481</v>
-      </c>
-      <c r="G37" t="n">
         <v>47.57822694044942</v>
       </c>
     </row>
@@ -1297,22 +1143,18 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>3205002005016</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3205002005016</t>
+        </is>
       </c>
       <c r="C38" t="n">
-        <v>1.878</v>
+        <v>15.818</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6820000000000001</v>
+        <v>121.1522997085623</v>
       </c>
       <c r="E38" t="n">
-        <v>15.818</v>
-      </c>
-      <c r="F38" t="n">
-        <v>121.1522997085623</v>
-      </c>
-      <c r="G38" t="n">
         <v>44.86264726922417</v>
       </c>
     </row>
@@ -1320,22 +1162,18 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
-        <v>3205002005017</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3205002005017</t>
+        </is>
       </c>
       <c r="C39" t="n">
-        <v>1.85</v>
+        <v>13.79</v>
       </c>
       <c r="D39" t="n">
-        <v>0.64</v>
+        <v>139.442683468922</v>
       </c>
       <c r="E39" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="F39" t="n">
-        <v>139.442683468922</v>
-      </c>
-      <c r="G39" t="n">
         <v>47.99725071969654</v>
       </c>
     </row>
@@ -1343,22 +1181,18 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
-        <v>3205002005018</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3205002005018</t>
+        </is>
       </c>
       <c r="C40" t="n">
-        <v>1.69</v>
+        <v>14.19</v>
       </c>
       <c r="D40" t="n">
-        <v>0.612</v>
+        <v>121.5318472783205</v>
       </c>
       <c r="E40" t="n">
-        <v>14.19</v>
-      </c>
-      <c r="F40" t="n">
-        <v>121.5318472783205</v>
-      </c>
-      <c r="G40" t="n">
         <v>43.9952934710304</v>
       </c>
     </row>
@@ -1366,22 +1200,18 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>3205002005019</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3205002005019</t>
+        </is>
       </c>
       <c r="C41" t="n">
-        <v>2.384</v>
+        <v>18.826</v>
       </c>
       <c r="D41" t="n">
-        <v>0.848</v>
+        <v>129.0873133638128</v>
       </c>
       <c r="E41" t="n">
-        <v>18.826</v>
-      </c>
-      <c r="F41" t="n">
-        <v>129.0873133638128</v>
-      </c>
-      <c r="G41" t="n">
         <v>45.31206185212337</v>
       </c>
     </row>
@@ -1389,22 +1219,18 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>3205002005020</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3205002005020</t>
+        </is>
       </c>
       <c r="C42" t="n">
-        <v>2.976</v>
+        <v>22.174</v>
       </c>
       <c r="D42" t="n">
-        <v>1.108</v>
+        <v>136.6769604732073</v>
       </c>
       <c r="E42" t="n">
-        <v>22.174</v>
-      </c>
-      <c r="F42" t="n">
-        <v>136.6769604732073</v>
-      </c>
-      <c r="G42" t="n">
         <v>50.64827647133198</v>
       </c>
     </row>
@@ -1412,22 +1238,18 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>3205002005021</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3205002005021</t>
+        </is>
       </c>
       <c r="C43" t="n">
-        <v>2.692</v>
+        <v>21.964</v>
       </c>
       <c r="D43" t="n">
-        <v>0.988</v>
+        <v>125.2877634051752</v>
       </c>
       <c r="E43" t="n">
-        <v>21.964</v>
-      </c>
-      <c r="F43" t="n">
-        <v>125.2877634051752</v>
-      </c>
-      <c r="G43" t="n">
         <v>45.97563072559601</v>
       </c>
     </row>
@@ -1435,22 +1257,18 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>3205101003001</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3205101003001</t>
+        </is>
       </c>
       <c r="C44" t="n">
-        <v>2.024</v>
+        <v>13.45</v>
       </c>
       <c r="D44" t="n">
-        <v>0.726</v>
+        <v>154.8784568253271</v>
       </c>
       <c r="E44" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="F44" t="n">
-        <v>154.8784568253271</v>
-      </c>
-      <c r="G44" t="n">
         <v>55.6879166413222</v>
       </c>
     </row>
@@ -1458,22 +1276,18 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>3205101003002</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3205101003002</t>
+        </is>
       </c>
       <c r="C45" t="n">
-        <v>2.964</v>
+        <v>22.452</v>
       </c>
       <c r="D45" t="n">
-        <v>0.988</v>
+        <v>135.5351962780341</v>
       </c>
       <c r="E45" t="n">
-        <v>22.452</v>
-      </c>
-      <c r="F45" t="n">
-        <v>135.5351962780341</v>
-      </c>
-      <c r="G45" t="n">
         <v>44.69544222842136</v>
       </c>
     </row>
@@ -1481,22 +1295,18 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>3205101003003</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3205101003003</t>
+        </is>
       </c>
       <c r="C46" t="n">
-        <v>3.204</v>
+        <v>23.718</v>
       </c>
       <c r="D46" t="n">
-        <v>1.156</v>
+        <v>137.5521381812048</v>
       </c>
       <c r="E46" t="n">
-        <v>23.718</v>
-      </c>
-      <c r="F46" t="n">
-        <v>137.5521381812048</v>
-      </c>
-      <c r="G46" t="n">
         <v>48.98319497506319</v>
       </c>
     </row>
@@ -1504,22 +1314,18 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>3205200005001</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>3205200005001</t>
+        </is>
       </c>
       <c r="C47" t="n">
-        <v>1.964</v>
+        <v>15.94</v>
       </c>
       <c r="D47" t="n">
-        <v>0.656</v>
+        <v>127.3882264626968</v>
       </c>
       <c r="E47" t="n">
-        <v>15.94</v>
-      </c>
-      <c r="F47" t="n">
-        <v>127.3882264626968</v>
-      </c>
-      <c r="G47" t="n">
         <v>42.33794835113757</v>
       </c>
     </row>
@@ -1527,22 +1333,18 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>3205200005002</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>3205200005002</t>
+        </is>
       </c>
       <c r="C48" t="n">
-        <v>3.75</v>
+        <v>31.476</v>
       </c>
       <c r="D48" t="n">
-        <v>1.336</v>
+        <v>121.2491082446606</v>
       </c>
       <c r="E48" t="n">
-        <v>31.476</v>
-      </c>
-      <c r="F48" t="n">
-        <v>121.2491082446606</v>
-      </c>
-      <c r="G48" t="n">
         <v>43.47782410110829</v>
       </c>
     </row>
@@ -1550,22 +1352,18 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>3205200005003</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>3205200005003</t>
+        </is>
       </c>
       <c r="C49" t="n">
-        <v>2.888</v>
+        <v>23.044</v>
       </c>
       <c r="D49" t="n">
-        <v>1.006</v>
+        <v>129.8293263558947</v>
       </c>
       <c r="E49" t="n">
-        <v>23.044</v>
-      </c>
-      <c r="F49" t="n">
-        <v>129.8293263558947</v>
-      </c>
-      <c r="G49" t="n">
         <v>45.92893484058598</v>
       </c>
     </row>
@@ -1573,22 +1371,18 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>3205200005004</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>3205200005004</t>
+        </is>
       </c>
       <c r="C50" t="n">
-        <v>2.584</v>
+        <v>20.476</v>
       </c>
       <c r="D50" t="n">
-        <v>0.95</v>
+        <v>129.4827764837149</v>
       </c>
       <c r="E50" t="n">
-        <v>20.476</v>
-      </c>
-      <c r="F50" t="n">
-        <v>129.4827764837149</v>
-      </c>
-      <c r="G50" t="n">
         <v>46.96524406408336</v>
       </c>
     </row>
@@ -1596,22 +1390,18 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
-        <v>3205200005005</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>3205200005005</t>
+        </is>
       </c>
       <c r="C51" t="n">
-        <v>2.36</v>
+        <v>17.846</v>
       </c>
       <c r="D51" t="n">
-        <v>0.84</v>
+        <v>134.1704599041094</v>
       </c>
       <c r="E51" t="n">
-        <v>17.846</v>
-      </c>
-      <c r="F51" t="n">
-        <v>134.1704599041094</v>
-      </c>
-      <c r="G51" t="n">
         <v>48.21754018031701</v>
       </c>
     </row>
@@ -1619,22 +1409,18 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>3205200005006</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>3205200005006</t>
+        </is>
       </c>
       <c r="C52" t="n">
-        <v>1.962</v>
+        <v>14.602</v>
       </c>
       <c r="D52" t="n">
-        <v>0.678</v>
+        <v>138.962891547139</v>
       </c>
       <c r="E52" t="n">
-        <v>14.602</v>
-      </c>
-      <c r="F52" t="n">
-        <v>138.962891547139</v>
-      </c>
-      <c r="G52" t="n">
         <v>48.86406780279441</v>
       </c>
     </row>
@@ -1642,22 +1428,18 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>3205200005007</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>3205200005007</t>
+        </is>
       </c>
       <c r="C53" t="n">
-        <v>2.852</v>
+        <v>22.936</v>
       </c>
       <c r="D53" t="n">
-        <v>1.038</v>
+        <v>127.7819450692714</v>
       </c>
       <c r="E53" t="n">
-        <v>22.936</v>
-      </c>
-      <c r="F53" t="n">
-        <v>127.7819450692714</v>
-      </c>
-      <c r="G53" t="n">
         <v>46.890001715604</v>
       </c>
     </row>
@@ -1665,22 +1447,18 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>3205200005008</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>3205200005008</t>
+        </is>
       </c>
       <c r="C54" t="n">
-        <v>1.956</v>
+        <v>15.86</v>
       </c>
       <c r="D54" t="n">
-        <v>0.672</v>
+        <v>126.8751296061657</v>
       </c>
       <c r="E54" t="n">
-        <v>15.86</v>
-      </c>
-      <c r="F54" t="n">
-        <v>126.8751296061657</v>
-      </c>
-      <c r="G54" t="n">
         <v>43.75163503240869</v>
       </c>
     </row>
@@ -1688,22 +1466,18 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>3205200005009</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>3205200005009</t>
+        </is>
       </c>
       <c r="C55" t="n">
-        <v>1.924</v>
+        <v>15.058</v>
       </c>
       <c r="D55" t="n">
-        <v>0.722</v>
+        <v>132.5801676203278</v>
       </c>
       <c r="E55" t="n">
-        <v>15.058</v>
-      </c>
-      <c r="F55" t="n">
-        <v>132.5801676203278</v>
-      </c>
-      <c r="G55" t="n">
         <v>49.60546602146746</v>
       </c>
     </row>
@@ -1711,22 +1485,18 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>3205200005010</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>3205200005010</t>
+        </is>
       </c>
       <c r="C56" t="n">
-        <v>1.914</v>
+        <v>15.17</v>
       </c>
       <c r="D56" t="n">
-        <v>0.654</v>
+        <v>129.2185303532546</v>
       </c>
       <c r="E56" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="F56" t="n">
-        <v>129.2185303532546</v>
-      </c>
-      <c r="G56" t="n">
         <v>44.32941147314903</v>
       </c>
     </row>
@@ -1734,22 +1504,18 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>3205200005011</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>3205200005011</t>
+        </is>
       </c>
       <c r="C57" t="n">
-        <v>2.762</v>
+        <v>22.186</v>
       </c>
       <c r="D57" t="n">
-        <v>1.02</v>
+        <v>126.8173464957752</v>
       </c>
       <c r="E57" t="n">
-        <v>22.186</v>
-      </c>
-      <c r="F57" t="n">
-        <v>126.8173464957752</v>
-      </c>
-      <c r="G57" t="n">
         <v>46.48922835028597</v>
       </c>
     </row>
@@ -1757,22 +1523,18 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>3205200005012</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>3205200005012</t>
+        </is>
       </c>
       <c r="C58" t="n">
-        <v>2.266</v>
+        <v>17.526</v>
       </c>
       <c r="D58" t="n">
-        <v>0.864</v>
+        <v>134.0420132713773</v>
       </c>
       <c r="E58" t="n">
-        <v>17.526</v>
-      </c>
-      <c r="F58" t="n">
-        <v>134.0420132713773</v>
-      </c>
-      <c r="G58" t="n">
         <v>50.54230885455495</v>
       </c>
     </row>
@@ -1780,22 +1542,18 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>3205200005013</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>3205200005013</t>
+        </is>
       </c>
       <c r="C59" t="n">
-        <v>2.404</v>
+        <v>19.024</v>
       </c>
       <c r="D59" t="n">
-        <v>0.842</v>
+        <v>129.9332605246733</v>
       </c>
       <c r="E59" t="n">
-        <v>19.024</v>
-      </c>
-      <c r="F59" t="n">
-        <v>129.9332605246733</v>
-      </c>
-      <c r="G59" t="n">
         <v>45.13935521217729</v>
       </c>
     </row>
@@ -1803,22 +1561,18 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>3205200005014</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>3205200005014</t>
+        </is>
       </c>
       <c r="C60" t="n">
-        <v>2.08</v>
+        <v>16.124</v>
       </c>
       <c r="D60" t="n">
-        <v>0.752</v>
+        <v>133.9201494248962</v>
       </c>
       <c r="E60" t="n">
-        <v>16.124</v>
-      </c>
-      <c r="F60" t="n">
-        <v>133.9201494248962</v>
-      </c>
-      <c r="G60" t="n">
         <v>47.67492891794515</v>
       </c>
     </row>
@@ -1826,22 +1580,18 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>3205200005015</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>3205200005015</t>
+        </is>
       </c>
       <c r="C61" t="n">
-        <v>1.902</v>
+        <v>14.858</v>
       </c>
       <c r="D61" t="n">
-        <v>0.712</v>
+        <v>132.5198212390203</v>
       </c>
       <c r="E61" t="n">
-        <v>14.858</v>
-      </c>
-      <c r="F61" t="n">
-        <v>132.5198212390203</v>
-      </c>
-      <c r="G61" t="n">
         <v>48.69017563418018</v>
       </c>
     </row>
@@ -1849,22 +1599,18 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>3205200005016</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>3205200005016</t>
+        </is>
       </c>
       <c r="C62" t="n">
-        <v>2.876</v>
+        <v>22.752</v>
       </c>
       <c r="D62" t="n">
-        <v>1.026</v>
+        <v>129.7578104536863</v>
       </c>
       <c r="E62" t="n">
-        <v>22.752</v>
-      </c>
-      <c r="F62" t="n">
-        <v>129.7578104536863</v>
-      </c>
-      <c r="G62" t="n">
         <v>46.44360198031708</v>
       </c>
     </row>
@@ -1872,22 +1618,18 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>3205200005017</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>3205200005017</t>
+        </is>
       </c>
       <c r="C63" t="n">
-        <v>2.19</v>
+        <v>18.106</v>
       </c>
       <c r="D63" t="n">
-        <v>0.79</v>
+        <v>125.649195482072</v>
       </c>
       <c r="E63" t="n">
-        <v>18.106</v>
-      </c>
-      <c r="F63" t="n">
-        <v>125.649195482072</v>
-      </c>
-      <c r="G63" t="n">
         <v>45.8540777002562</v>
       </c>
     </row>
@@ -1895,22 +1637,18 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>3205200005018</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3205200005018</t>
+        </is>
       </c>
       <c r="C64" t="n">
-        <v>2.998</v>
+        <v>23.264</v>
       </c>
       <c r="D64" t="n">
-        <v>1.116</v>
+        <v>131.5877056168135</v>
       </c>
       <c r="E64" t="n">
-        <v>23.264</v>
-      </c>
-      <c r="F64" t="n">
-        <v>131.5877056168135</v>
-      </c>
-      <c r="G64" t="n">
         <v>49.48326229584148</v>
       </c>
     </row>
@@ -1918,22 +1656,18 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>3205200005019</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3205200005019</t>
+        </is>
       </c>
       <c r="C65" t="n">
-        <v>7.888</v>
+        <v>60.25</v>
       </c>
       <c r="D65" t="n">
-        <v>2.836</v>
+        <v>131.9709888798371</v>
       </c>
       <c r="E65" t="n">
-        <v>60.25</v>
-      </c>
-      <c r="F65" t="n">
-        <v>131.9709888798371</v>
-      </c>
-      <c r="G65" t="n">
         <v>47.37968218711793</v>
       </c>
     </row>
@@ -1941,22 +1675,18 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>3205309005001</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>3205309005001</t>
+        </is>
       </c>
       <c r="C66" t="n">
-        <v>2.362</v>
+        <v>19.02</v>
       </c>
       <c r="D66" t="n">
-        <v>0.876</v>
+        <v>127.317683812969</v>
       </c>
       <c r="E66" t="n">
-        <v>19.02</v>
-      </c>
-      <c r="F66" t="n">
-        <v>127.317683812969</v>
-      </c>
-      <c r="G66" t="n">
         <v>47.20092489774952</v>
       </c>
     </row>
@@ -1964,22 +1694,18 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>3205309005002</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3205309005002</t>
+        </is>
       </c>
       <c r="C67" t="n">
-        <v>1.904</v>
+        <v>15.772</v>
       </c>
       <c r="D67" t="n">
-        <v>0.67</v>
+        <v>124.5092463702074</v>
       </c>
       <c r="E67" t="n">
-        <v>15.772</v>
-      </c>
-      <c r="F67" t="n">
-        <v>124.5092463702074</v>
-      </c>
-      <c r="G67" t="n">
         <v>44.20768206950465</v>
       </c>
     </row>
@@ -1987,22 +1713,18 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>3205309005003</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3205309005003</t>
+        </is>
       </c>
       <c r="C68" t="n">
-        <v>2.636</v>
+        <v>21.842</v>
       </c>
       <c r="D68" t="n">
-        <v>0.93</v>
+        <v>124.4910152403521</v>
       </c>
       <c r="E68" t="n">
-        <v>21.842</v>
-      </c>
-      <c r="F68" t="n">
-        <v>124.4910152403521</v>
-      </c>
-      <c r="G68" t="n">
         <v>43.05544241485306</v>
       </c>
     </row>
@@ -2010,22 +1732,18 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>3205309005004</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3205309005004</t>
+        </is>
       </c>
       <c r="C69" t="n">
-        <v>3.906</v>
+        <v>31.418</v>
       </c>
       <c r="D69" t="n">
-        <v>1.38</v>
+        <v>127.0270810181612</v>
       </c>
       <c r="E69" t="n">
-        <v>31.418</v>
-      </c>
-      <c r="F69" t="n">
-        <v>127.0270810181612</v>
-      </c>
-      <c r="G69" t="n">
         <v>44.50036143779805</v>
       </c>
     </row>
@@ -2033,22 +1751,18 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>3205309005005</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3205309005005</t>
+        </is>
       </c>
       <c r="C70" t="n">
-        <v>2.206</v>
+        <v>17.596</v>
       </c>
       <c r="D70" t="n">
-        <v>0.754</v>
+        <v>128.5634800187599</v>
       </c>
       <c r="E70" t="n">
-        <v>17.596</v>
-      </c>
-      <c r="F70" t="n">
-        <v>128.5634800187599</v>
-      </c>
-      <c r="G70" t="n">
         <v>44.09090114397122</v>
       </c>
     </row>
@@ -2056,22 +1770,18 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>3205309005006</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3205309005006</t>
+        </is>
       </c>
       <c r="C71" t="n">
-        <v>1.57</v>
+        <v>13.088</v>
       </c>
       <c r="D71" t="n">
-        <v>0.554</v>
+        <v>125.0637147428782</v>
       </c>
       <c r="E71" t="n">
-        <v>13.088</v>
-      </c>
-      <c r="F71" t="n">
-        <v>125.0637147428782</v>
-      </c>
-      <c r="G71" t="n">
         <v>43.22292065048962</v>
       </c>
     </row>
@@ -2079,22 +1789,18 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>3205309005007</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>3205309005007</t>
+        </is>
       </c>
       <c r="C72" t="n">
-        <v>2.806</v>
+        <v>23.95</v>
       </c>
       <c r="D72" t="n">
-        <v>1.036</v>
+        <v>119.1065773310091</v>
       </c>
       <c r="E72" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="F72" t="n">
-        <v>119.1065773310091</v>
-      </c>
-      <c r="G72" t="n">
         <v>44.07959981662069</v>
       </c>
     </row>
@@ -2102,22 +1808,18 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>3205309005008</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>3205309005008</t>
+        </is>
       </c>
       <c r="C73" t="n">
-        <v>2.3</v>
+        <v>19.318</v>
       </c>
       <c r="D73" t="n">
-        <v>0.87</v>
+        <v>122.6824702074863</v>
       </c>
       <c r="E73" t="n">
-        <v>19.318</v>
-      </c>
-      <c r="F73" t="n">
-        <v>122.6824702074863</v>
-      </c>
-      <c r="G73" t="n">
         <v>46.02958307377942</v>
       </c>
     </row>
@@ -2125,22 +1827,18 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>3205309005009</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>3205309005009</t>
+        </is>
       </c>
       <c r="C74" t="n">
-        <v>1.842</v>
+        <v>15.932</v>
       </c>
       <c r="D74" t="n">
-        <v>0.66</v>
+        <v>118.3777231220651</v>
       </c>
       <c r="E74" t="n">
-        <v>15.932</v>
-      </c>
-      <c r="F74" t="n">
-        <v>118.3777231220651</v>
-      </c>
-      <c r="G74" t="n">
         <v>42.55853643963012</v>
       </c>
     </row>
@@ -2148,22 +1846,18 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>3205309005010</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>3205309005010</t>
+        </is>
       </c>
       <c r="C75" t="n">
-        <v>5.356</v>
+        <v>44.43</v>
       </c>
       <c r="D75" t="n">
-        <v>1.866</v>
+        <v>121.8729192291011</v>
       </c>
       <c r="E75" t="n">
-        <v>44.43</v>
-      </c>
-      <c r="F75" t="n">
-        <v>121.8729192291011</v>
-      </c>
-      <c r="G75" t="n">
         <v>42.62041128241449</v>
       </c>
     </row>
@@ -2171,22 +1865,18 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>3205309005011</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>3205309005011</t>
+        </is>
       </c>
       <c r="C76" t="n">
-        <v>1.704</v>
+        <v>13.296</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5679999999999999</v>
+        <v>134.2190287002948</v>
       </c>
       <c r="E76" t="n">
-        <v>13.296</v>
-      </c>
-      <c r="F76" t="n">
-        <v>134.2190287002948</v>
-      </c>
-      <c r="G76" t="n">
         <v>44.95509897714093</v>
       </c>
     </row>
@@ -2194,22 +1884,18 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>3205309005012</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>3205309005012</t>
+        </is>
       </c>
       <c r="C77" t="n">
-        <v>1.656</v>
+        <v>13.002</v>
       </c>
       <c r="D77" t="n">
-        <v>0.594</v>
+        <v>132.7474908257564</v>
       </c>
       <c r="E77" t="n">
-        <v>13.002</v>
-      </c>
-      <c r="F77" t="n">
-        <v>132.7474908257564</v>
-      </c>
-      <c r="G77" t="n">
         <v>47.86649398932682</v>
       </c>
     </row>
@@ -2217,22 +1903,18 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>3205309005013</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3205309005013</t>
+        </is>
       </c>
       <c r="C78" t="n">
-        <v>3.954</v>
+        <v>33.27</v>
       </c>
       <c r="D78" t="n">
-        <v>1.492</v>
+        <v>119.9498572250595</v>
       </c>
       <c r="E78" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="F78" t="n">
-        <v>119.9498572250595</v>
-      </c>
-      <c r="G78" t="n">
         <v>45.56226245283197</v>
       </c>
     </row>
@@ -2240,22 +1922,18 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>3205309005014</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>3205309005014</t>
+        </is>
       </c>
       <c r="C79" t="n">
-        <v>5.682</v>
+        <v>47.596</v>
       </c>
       <c r="D79" t="n">
-        <v>2.036</v>
+        <v>120.9817945249494</v>
       </c>
       <c r="E79" t="n">
-        <v>47.596</v>
-      </c>
-      <c r="F79" t="n">
-        <v>120.9817945249494</v>
-      </c>
-      <c r="G79" t="n">
         <v>43.30912011875529</v>
       </c>
     </row>

--- a/VIDA2/data/VITORIA.xlsx
+++ b/VIDA2/data/VITORIA.xlsx
@@ -465,13 +465,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14.626</v>
+        <v>14.6865</v>
       </c>
       <c r="D2" t="n">
-        <v>124.0268388710596</v>
+        <v>127.9352029597021</v>
       </c>
       <c r="E2" t="n">
-        <v>45.00798408386305</v>
+        <v>46.34678217164663</v>
       </c>
     </row>
     <row r="3">
@@ -484,13 +484,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26.92</v>
+        <v>26.742</v>
       </c>
       <c r="D3" t="n">
-        <v>127.0525055362634</v>
+        <v>129.8386121299027</v>
       </c>
       <c r="E3" t="n">
-        <v>49.25194783976622</v>
+        <v>46.80600078987167</v>
       </c>
     </row>
     <row r="4">
@@ -503,13 +503,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24.37</v>
+        <v>24.836</v>
       </c>
       <c r="D4" t="n">
-        <v>134.7841291399787</v>
+        <v>130.6076890807317</v>
       </c>
       <c r="E4" t="n">
-        <v>45.93380567112403</v>
+        <v>45.28810307748824</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31.574</v>
+        <v>31.59</v>
       </c>
       <c r="D5" t="n">
-        <v>138.1818909626804</v>
+        <v>134.8330336964197</v>
       </c>
       <c r="E5" t="n">
-        <v>49.30881091201766</v>
+        <v>48.72702429109477</v>
       </c>
     </row>
     <row r="6">
@@ -541,13 +541,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16.41</v>
+        <v>16.722</v>
       </c>
       <c r="D6" t="n">
-        <v>130.792340482218</v>
+        <v>133.1282350238106</v>
       </c>
       <c r="E6" t="n">
-        <v>46.00107677932185</v>
+        <v>48.22388662271847</v>
       </c>
     </row>
     <row r="7">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35.288</v>
+        <v>35.1575</v>
       </c>
       <c r="D7" t="n">
-        <v>129.8454555431875</v>
+        <v>134.3498064295696</v>
       </c>
       <c r="E7" t="n">
-        <v>46.09958076802109</v>
+        <v>47.76869761684434</v>
       </c>
     </row>
     <row r="8">
@@ -579,13 +579,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16.77</v>
+        <v>16.6505</v>
       </c>
       <c r="D8" t="n">
-        <v>138.8652521621046</v>
+        <v>131.2575626025965</v>
       </c>
       <c r="E8" t="n">
-        <v>47.40601734779449</v>
+        <v>49.0595389373126</v>
       </c>
     </row>
     <row r="9">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>15.242</v>
+        <v>15.4555</v>
       </c>
       <c r="D9" t="n">
-        <v>129.0272050165175</v>
+        <v>128.834651258993</v>
       </c>
       <c r="E9" t="n">
-        <v>44.90773620469146</v>
+        <v>46.84738472391682</v>
       </c>
     </row>
     <row r="10">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>19.492</v>
+        <v>19.3165</v>
       </c>
       <c r="D10" t="n">
-        <v>125.3784134190113</v>
+        <v>131.7595894659213</v>
       </c>
       <c r="E10" t="n">
-        <v>43.68999592114029</v>
+        <v>47.8526861640158</v>
       </c>
     </row>
     <row r="11">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>31.506</v>
+        <v>31.8105</v>
       </c>
       <c r="D11" t="n">
-        <v>123.6057135766939</v>
+        <v>125.6916646008366</v>
       </c>
       <c r="E11" t="n">
-        <v>45.68219473608556</v>
+        <v>45.98799107657778</v>
       </c>
     </row>
     <row r="12">
@@ -655,13 +655,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.534</v>
+        <v>18.8285</v>
       </c>
       <c r="D12" t="n">
-        <v>136.3655833657578</v>
+        <v>123.7469812560509</v>
       </c>
       <c r="E12" t="n">
-        <v>49.51538269179942</v>
+        <v>44.143516487028</v>
       </c>
     </row>
     <row r="13">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.254</v>
+        <v>22.694</v>
       </c>
       <c r="D13" t="n">
-        <v>135.1548516587625</v>
+        <v>131.166954938606</v>
       </c>
       <c r="E13" t="n">
-        <v>47.7541894076135</v>
+        <v>48.46518688380569</v>
       </c>
     </row>
     <row r="14">
@@ -693,13 +693,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26.424</v>
+        <v>26.166</v>
       </c>
       <c r="D14" t="n">
-        <v>133.4499499567144</v>
+        <v>137.943929709938</v>
       </c>
       <c r="E14" t="n">
-        <v>48.37182755779657</v>
+        <v>50.26098940219928</v>
       </c>
     </row>
     <row r="15">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>16.094</v>
+        <v>15.852</v>
       </c>
       <c r="D15" t="n">
-        <v>129.5133648877353</v>
+        <v>135.2097741582061</v>
       </c>
       <c r="E15" t="n">
-        <v>46.30315696670221</v>
+        <v>46.75366017123515</v>
       </c>
     </row>
     <row r="16">
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>21.29</v>
+        <v>21.0005</v>
       </c>
       <c r="D16" t="n">
-        <v>132.9647709550742</v>
+        <v>129.1010303253067</v>
       </c>
       <c r="E16" t="n">
-        <v>47.19815646032588</v>
+        <v>47.37369071301912</v>
       </c>
     </row>
     <row r="17">
@@ -750,13 +750,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.19</v>
+        <v>13.8795</v>
       </c>
       <c r="D17" t="n">
-        <v>125.7377416085109</v>
+        <v>128.3991488875234</v>
       </c>
       <c r="E17" t="n">
-        <v>47.7884281534113</v>
+        <v>46.53622891044573</v>
       </c>
     </row>
     <row r="18">
@@ -769,13 +769,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>16.398</v>
+        <v>16.2995</v>
       </c>
       <c r="D18" t="n">
-        <v>126.9461691346084</v>
+        <v>128.9823364652326</v>
       </c>
       <c r="E18" t="n">
-        <v>44.76065672167206</v>
+        <v>46.25820051965268</v>
       </c>
     </row>
     <row r="19">
@@ -788,13 +788,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13.176</v>
+        <v>12.8855</v>
       </c>
       <c r="D19" t="n">
-        <v>122.9307958691523</v>
+        <v>136.0959449627867</v>
       </c>
       <c r="E19" t="n">
-        <v>47.30009254292471</v>
+        <v>49.48317283968437</v>
       </c>
     </row>
     <row r="20">
@@ -807,13 +807,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15.75</v>
+        <v>15.409</v>
       </c>
       <c r="D20" t="n">
-        <v>131.7377439284466</v>
+        <v>132.4932864951171</v>
       </c>
       <c r="E20" t="n">
-        <v>47.88853365648428</v>
+        <v>46.73297368205712</v>
       </c>
     </row>
     <row r="21">
@@ -826,13 +826,13 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>16.858</v>
+        <v>16.4815</v>
       </c>
       <c r="D21" t="n">
-        <v>137.7916582446899</v>
+        <v>139.2766757065351</v>
       </c>
       <c r="E21" t="n">
-        <v>48.88232572255863</v>
+        <v>49.08581396622682</v>
       </c>
     </row>
     <row r="22">
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>26.662</v>
+        <v>26.3705</v>
       </c>
       <c r="D22" t="n">
-        <v>136.3029151376065</v>
+        <v>128.2744729759749</v>
       </c>
       <c r="E22" t="n">
-        <v>48.48428921600397</v>
+        <v>44.52558675779137</v>
       </c>
     </row>
     <row r="23">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>18.616</v>
+        <v>18.6515</v>
       </c>
       <c r="D23" t="n">
-        <v>130.2967815638588</v>
+        <v>129.7974087334181</v>
       </c>
       <c r="E23" t="n">
-        <v>48.47783920532849</v>
+        <v>46.24343240972673</v>
       </c>
     </row>
     <row r="24">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25.3</v>
+        <v>25.2265</v>
       </c>
       <c r="D24" t="n">
-        <v>128.3445739722096</v>
+        <v>131.5221868067932</v>
       </c>
       <c r="E24" t="n">
-        <v>44.9489260324574</v>
+        <v>46.49255467069002</v>
       </c>
     </row>
     <row r="25">
@@ -902,13 +902,13 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>21.71</v>
+        <v>22.2015</v>
       </c>
       <c r="D25" t="n">
-        <v>129.3630630023528</v>
+        <v>127.3927226774955</v>
       </c>
       <c r="E25" t="n">
-        <v>46.73669975346967</v>
+        <v>43.90873754038962</v>
       </c>
     </row>
     <row r="26">
@@ -921,13 +921,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>13.212</v>
+        <v>13.0445</v>
       </c>
       <c r="D26" t="n">
-        <v>133.3137536578377</v>
+        <v>134.377645667294</v>
       </c>
       <c r="E26" t="n">
-        <v>48.03919536775578</v>
+        <v>49.90445149518887</v>
       </c>
     </row>
     <row r="27">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>15.148</v>
+        <v>15.0465</v>
       </c>
       <c r="D27" t="n">
-        <v>129.1940238383228</v>
+        <v>122.4959757186734</v>
       </c>
       <c r="E27" t="n">
-        <v>44.32042729683903</v>
+        <v>43.20721872664253</v>
       </c>
     </row>
     <row r="28">
@@ -959,13 +959,13 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.704</v>
+        <v>18.7035</v>
       </c>
       <c r="D28" t="n">
-        <v>123.8271866519757</v>
+        <v>129.7100609870407</v>
       </c>
       <c r="E28" t="n">
-        <v>42.39122972479444</v>
+        <v>47.55892625963556</v>
       </c>
     </row>
     <row r="29">
@@ -978,13 +978,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>15.54</v>
+        <v>15.24</v>
       </c>
       <c r="D29" t="n">
-        <v>124.1527810890794</v>
+        <v>130.2184472546804</v>
       </c>
       <c r="E29" t="n">
-        <v>40.53440793610597</v>
+        <v>45.93930142318951</v>
       </c>
     </row>
     <row r="30">
@@ -997,13 +997,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>14.314</v>
+        <v>14.396</v>
       </c>
       <c r="D30" t="n">
-        <v>138.261105514787</v>
+        <v>137.1414204950588</v>
       </c>
       <c r="E30" t="n">
-        <v>50.30259004071557</v>
+        <v>48.44813581342451</v>
       </c>
     </row>
     <row r="31">
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>26.854</v>
+        <v>26.5185</v>
       </c>
       <c r="D31" t="n">
-        <v>124.6238193594276</v>
+        <v>124.3126467738744</v>
       </c>
       <c r="E31" t="n">
-        <v>44.07805914449308</v>
+        <v>45.19882652677401</v>
       </c>
     </row>
     <row r="32">
@@ -1035,13 +1035,13 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>17.1</v>
+        <v>17.116</v>
       </c>
       <c r="D32" t="n">
-        <v>125.5376343365218</v>
+        <v>135.603489533895</v>
       </c>
       <c r="E32" t="n">
-        <v>46.68011051613472</v>
+        <v>47.71756834965903</v>
       </c>
     </row>
     <row r="33">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>21.974</v>
+        <v>21.428</v>
       </c>
       <c r="D33" t="n">
-        <v>123.9547021244726</v>
+        <v>127.8034498698176</v>
       </c>
       <c r="E33" t="n">
-        <v>43.84428802582991</v>
+        <v>45.71878739205772</v>
       </c>
     </row>
     <row r="34">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>16.194</v>
+        <v>16.3005</v>
       </c>
       <c r="D34" t="n">
-        <v>125.6169452034333</v>
+        <v>127.4396828719416</v>
       </c>
       <c r="E34" t="n">
-        <v>42.73538273238701</v>
+        <v>44.77517492759095</v>
       </c>
     </row>
     <row r="35">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>14.624</v>
+        <v>14.6065</v>
       </c>
       <c r="D35" t="n">
-        <v>130.6225480849448</v>
+        <v>125.1497314551241</v>
       </c>
       <c r="E35" t="n">
-        <v>48.65928303685065</v>
+        <v>45.12297378442807</v>
       </c>
     </row>
     <row r="36">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>22.286</v>
+        <v>22.4725</v>
       </c>
       <c r="D36" t="n">
-        <v>130.5525681731993</v>
+        <v>128.8609475378457</v>
       </c>
       <c r="E36" t="n">
-        <v>48.231251607267</v>
+        <v>45.36809269983838</v>
       </c>
     </row>
     <row r="37">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>25.09</v>
+        <v>25.1245</v>
       </c>
       <c r="D37" t="n">
-        <v>131.4998001159481</v>
+        <v>131.4839793107083</v>
       </c>
       <c r="E37" t="n">
-        <v>47.57822694044942</v>
+        <v>47.8916085515207</v>
       </c>
     </row>
     <row r="38">
@@ -1149,13 +1149,13 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15.818</v>
+        <v>15.845</v>
       </c>
       <c r="D38" t="n">
-        <v>121.1522997085623</v>
+        <v>123.2873591371773</v>
       </c>
       <c r="E38" t="n">
-        <v>44.86264726922417</v>
+        <v>44.97919516898516</v>
       </c>
     </row>
     <row r="39">
@@ -1168,13 +1168,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>13.79</v>
+        <v>13.8215</v>
       </c>
       <c r="D39" t="n">
-        <v>139.442683468922</v>
+        <v>140.4566690779944</v>
       </c>
       <c r="E39" t="n">
-        <v>47.99725071969654</v>
+        <v>49.13874839874227</v>
       </c>
     </row>
     <row r="40">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>14.19</v>
+        <v>14.0955</v>
       </c>
       <c r="D40" t="n">
-        <v>121.5318472783205</v>
+        <v>129.4938172934996</v>
       </c>
       <c r="E40" t="n">
-        <v>43.9952934710304</v>
+        <v>45.57271840891113</v>
       </c>
     </row>
     <row r="41">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18.826</v>
+        <v>18.697</v>
       </c>
       <c r="D41" t="n">
-        <v>129.0873133638128</v>
+        <v>132.8622918009284</v>
       </c>
       <c r="E41" t="n">
-        <v>45.31206185212337</v>
+        <v>48.33764350693814</v>
       </c>
     </row>
     <row r="42">
@@ -1225,13 +1225,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>22.174</v>
+        <v>22.0195</v>
       </c>
       <c r="D42" t="n">
-        <v>136.6769604732073</v>
+        <v>127.7797635309325</v>
       </c>
       <c r="E42" t="n">
-        <v>50.64827647133198</v>
+        <v>44.94009214743531</v>
       </c>
     </row>
     <row r="43">
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>21.964</v>
+        <v>21.568</v>
       </c>
       <c r="D43" t="n">
-        <v>125.2877634051752</v>
+        <v>129.8571137156568</v>
       </c>
       <c r="E43" t="n">
-        <v>45.97563072559601</v>
+        <v>46.13209069883265</v>
       </c>
     </row>
     <row r="44">
@@ -1263,13 +1263,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13.45</v>
+        <v>13.519</v>
       </c>
       <c r="D44" t="n">
-        <v>154.8784568253271</v>
+        <v>166.4457893742112</v>
       </c>
       <c r="E44" t="n">
-        <v>55.6879166413222</v>
+        <v>57.66417723250168</v>
       </c>
     </row>
     <row r="45">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>22.452</v>
+        <v>22.105</v>
       </c>
       <c r="D45" t="n">
-        <v>135.5351962780341</v>
+        <v>133.1984767058687</v>
       </c>
       <c r="E45" t="n">
-        <v>44.69544222842136</v>
+        <v>47.34132058869751</v>
       </c>
     </row>
     <row r="46">
@@ -1301,13 +1301,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>23.718</v>
+        <v>23.9535</v>
       </c>
       <c r="D46" t="n">
-        <v>137.5521381812048</v>
+        <v>132.6266530610293</v>
       </c>
       <c r="E46" t="n">
-        <v>48.98319497506319</v>
+        <v>47.94930819684621</v>
       </c>
     </row>
     <row r="47">
@@ -1320,13 +1320,13 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15.94</v>
+        <v>16.1015</v>
       </c>
       <c r="D47" t="n">
-        <v>127.3882264626968</v>
+        <v>126.4683594837806</v>
       </c>
       <c r="E47" t="n">
-        <v>42.33794835113757</v>
+        <v>46.28047255846318</v>
       </c>
     </row>
     <row r="48">
@@ -1339,13 +1339,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>31.476</v>
+        <v>31.596</v>
       </c>
       <c r="D48" t="n">
-        <v>121.2491082446606</v>
+        <v>122.3007261609763</v>
       </c>
       <c r="E48" t="n">
-        <v>43.47782410110829</v>
+        <v>44.51607729175198</v>
       </c>
     </row>
     <row r="49">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>23.044</v>
+        <v>23.0505</v>
       </c>
       <c r="D49" t="n">
-        <v>129.8293263558947</v>
+        <v>120.0675911002391</v>
       </c>
       <c r="E49" t="n">
-        <v>45.92893484058598</v>
+        <v>42.32961513170288</v>
       </c>
     </row>
     <row r="50">
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>20.476</v>
+        <v>20.5125</v>
       </c>
       <c r="D50" t="n">
-        <v>129.4827764837149</v>
+        <v>124.8011060143781</v>
       </c>
       <c r="E50" t="n">
-        <v>46.96524406408336</v>
+        <v>46.16898351855123</v>
       </c>
     </row>
     <row r="51">
@@ -1396,13 +1396,13 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17.846</v>
+        <v>17.7495</v>
       </c>
       <c r="D51" t="n">
-        <v>134.1704599041094</v>
+        <v>142.137258106522</v>
       </c>
       <c r="E51" t="n">
-        <v>48.21754018031701</v>
+        <v>49.93891533252729</v>
       </c>
     </row>
     <row r="52">
@@ -1415,13 +1415,13 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>14.602</v>
+        <v>14.7435</v>
       </c>
       <c r="D52" t="n">
-        <v>138.962891547139</v>
+        <v>127.5690429565804</v>
       </c>
       <c r="E52" t="n">
-        <v>48.86406780279441</v>
+        <v>43.70256445138801</v>
       </c>
     </row>
     <row r="53">
@@ -1434,13 +1434,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>22.936</v>
+        <v>23.11</v>
       </c>
       <c r="D53" t="n">
-        <v>127.7819450692714</v>
+        <v>128.8032729888648</v>
       </c>
       <c r="E53" t="n">
-        <v>46.890001715604</v>
+        <v>46.44377128006545</v>
       </c>
     </row>
     <row r="54">
@@ -1453,13 +1453,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>15.86</v>
+        <v>15.658</v>
       </c>
       <c r="D54" t="n">
-        <v>126.8751296061657</v>
+        <v>127.6545599745782</v>
       </c>
       <c r="E54" t="n">
-        <v>43.75163503240869</v>
+        <v>45.71100068762641</v>
       </c>
     </row>
     <row r="55">
@@ -1472,13 +1472,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>15.058</v>
+        <v>15.156</v>
       </c>
       <c r="D55" t="n">
-        <v>132.5801676203278</v>
+        <v>127.274245268649</v>
       </c>
       <c r="E55" t="n">
-        <v>49.60546602146746</v>
+        <v>45.59865585378208</v>
       </c>
     </row>
     <row r="56">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>15.17</v>
+        <v>15.329</v>
       </c>
       <c r="D56" t="n">
-        <v>129.2185303532546</v>
+        <v>131.9231211815011</v>
       </c>
       <c r="E56" t="n">
-        <v>44.32941147314903</v>
+        <v>46.46246733019744</v>
       </c>
     </row>
     <row r="57">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>22.186</v>
+        <v>22.389</v>
       </c>
       <c r="D57" t="n">
-        <v>126.8173464957752</v>
+        <v>126.8508241549553</v>
       </c>
       <c r="E57" t="n">
-        <v>46.48922835028597</v>
+        <v>44.82353029472281</v>
       </c>
     </row>
     <row r="58">
@@ -1529,13 +1529,13 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.526</v>
+        <v>17.489</v>
       </c>
       <c r="D58" t="n">
-        <v>134.0420132713773</v>
+        <v>135.1286649134472</v>
       </c>
       <c r="E58" t="n">
-        <v>50.54230885455495</v>
+        <v>49.02671394728849</v>
       </c>
     </row>
     <row r="59">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>19.024</v>
+        <v>18.8035</v>
       </c>
       <c r="D59" t="n">
-        <v>129.9332605246733</v>
+        <v>130.1768215355977</v>
       </c>
       <c r="E59" t="n">
-        <v>45.13935521217729</v>
+        <v>44.98872575673894</v>
       </c>
     </row>
     <row r="60">
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16.124</v>
+        <v>15.9545</v>
       </c>
       <c r="D60" t="n">
-        <v>133.9201494248962</v>
+        <v>136.3422025973679</v>
       </c>
       <c r="E60" t="n">
-        <v>47.67492891794515</v>
+        <v>48.35256027953659</v>
       </c>
     </row>
     <row r="61">
@@ -1586,13 +1586,13 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>14.858</v>
+        <v>15.0435</v>
       </c>
       <c r="D61" t="n">
-        <v>132.5198212390203</v>
+        <v>129.762218047628</v>
       </c>
       <c r="E61" t="n">
-        <v>48.69017563418018</v>
+        <v>46.82981022500351</v>
       </c>
     </row>
     <row r="62">
@@ -1605,13 +1605,13 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>22.752</v>
+        <v>22.7055</v>
       </c>
       <c r="D62" t="n">
-        <v>129.7578104536863</v>
+        <v>129.8865708164592</v>
       </c>
       <c r="E62" t="n">
-        <v>46.44360198031708</v>
+        <v>44.48978423689488</v>
       </c>
     </row>
     <row r="63">
@@ -1624,13 +1624,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18.106</v>
+        <v>17.979</v>
       </c>
       <c r="D63" t="n">
-        <v>125.649195482072</v>
+        <v>133.7660864463318</v>
       </c>
       <c r="E63" t="n">
-        <v>45.8540777002562</v>
+        <v>49.81503475475152</v>
       </c>
     </row>
     <row r="64">
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>23.264</v>
+        <v>23.47</v>
       </c>
       <c r="D64" t="n">
-        <v>131.5877056168135</v>
+        <v>133.3096176610003</v>
       </c>
       <c r="E64" t="n">
-        <v>49.48326229584148</v>
+        <v>48.37413604235535</v>
       </c>
     </row>
     <row r="65">
@@ -1662,13 +1662,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>60.25</v>
+        <v>59.5885</v>
       </c>
       <c r="D65" t="n">
-        <v>131.9709888798371</v>
+        <v>125.1825421376507</v>
       </c>
       <c r="E65" t="n">
-        <v>47.37968218711793</v>
+        <v>44.02626032334441</v>
       </c>
     </row>
     <row r="66">
@@ -1681,13 +1681,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>19.02</v>
+        <v>19.2035</v>
       </c>
       <c r="D66" t="n">
-        <v>127.317683812969</v>
+        <v>127.4837336100912</v>
       </c>
       <c r="E66" t="n">
-        <v>47.20092489774952</v>
+        <v>45.1827277640451</v>
       </c>
     </row>
     <row r="67">
@@ -1700,13 +1700,13 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>15.772</v>
+        <v>15.833</v>
       </c>
       <c r="D67" t="n">
-        <v>124.5092463702074</v>
+        <v>123.754079331253</v>
       </c>
       <c r="E67" t="n">
-        <v>44.20768206950465</v>
+        <v>45.40934252117736</v>
       </c>
     </row>
     <row r="68">
@@ -1722,10 +1722,10 @@
         <v>21.842</v>
       </c>
       <c r="D68" t="n">
-        <v>124.4910152403521</v>
+        <v>126.7083752887535</v>
       </c>
       <c r="E68" t="n">
-        <v>43.05544241485306</v>
+        <v>44.68308170796374</v>
       </c>
     </row>
     <row r="69">
@@ -1738,13 +1738,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>31.418</v>
+        <v>31.664</v>
       </c>
       <c r="D69" t="n">
-        <v>127.0270810181612</v>
+        <v>126.9337125384349</v>
       </c>
       <c r="E69" t="n">
-        <v>44.50036143779805</v>
+        <v>46.01819937922791</v>
       </c>
     </row>
     <row r="70">
@@ -1757,13 +1757,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17.596</v>
+        <v>17.579</v>
       </c>
       <c r="D70" t="n">
-        <v>128.5634800187599</v>
+        <v>127.3042555364723</v>
       </c>
       <c r="E70" t="n">
-        <v>44.09090114397122</v>
+        <v>46.3172149610987</v>
       </c>
     </row>
     <row r="71">
@@ -1776,13 +1776,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>13.088</v>
+        <v>13.047</v>
       </c>
       <c r="D71" t="n">
-        <v>125.0637147428782</v>
+        <v>130.7397612047044</v>
       </c>
       <c r="E71" t="n">
-        <v>43.22292065048962</v>
+        <v>46.63552485885995</v>
       </c>
     </row>
     <row r="72">
@@ -1795,13 +1795,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>23.95</v>
+        <v>24.051</v>
       </c>
       <c r="D72" t="n">
-        <v>119.1065773310091</v>
+        <v>127.2921123980671</v>
       </c>
       <c r="E72" t="n">
-        <v>44.07959981662069</v>
+        <v>46.25644938620973</v>
       </c>
     </row>
     <row r="73">
@@ -1814,13 +1814,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>19.318</v>
+        <v>19.067</v>
       </c>
       <c r="D73" t="n">
-        <v>122.6824702074863</v>
+        <v>118.7786300824826</v>
       </c>
       <c r="E73" t="n">
-        <v>46.02958307377942</v>
+        <v>43.20266375746424</v>
       </c>
     </row>
     <row r="74">
@@ -1833,13 +1833,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>15.932</v>
+        <v>15.736</v>
       </c>
       <c r="D74" t="n">
-        <v>118.3777231220651</v>
+        <v>118.6493019954749</v>
       </c>
       <c r="E74" t="n">
-        <v>42.55853643963012</v>
+        <v>42.07739674777312</v>
       </c>
     </row>
     <row r="75">
@@ -1852,13 +1852,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>44.43</v>
+        <v>44.302</v>
       </c>
       <c r="D75" t="n">
-        <v>121.8729192291011</v>
+        <v>117.4589408662483</v>
       </c>
       <c r="E75" t="n">
-        <v>42.62041128241449</v>
+        <v>41.91407122361696</v>
       </c>
     </row>
     <row r="76">
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>13.296</v>
+        <v>13.272</v>
       </c>
       <c r="D76" t="n">
-        <v>134.2190287002948</v>
+        <v>129.889712688437</v>
       </c>
       <c r="E76" t="n">
-        <v>44.95509897714093</v>
+        <v>46.13587418992932</v>
       </c>
     </row>
     <row r="77">
@@ -1890,13 +1890,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>13.002</v>
+        <v>13.2285</v>
       </c>
       <c r="D77" t="n">
-        <v>132.7474908257564</v>
+        <v>132.9452846213508</v>
       </c>
       <c r="E77" t="n">
-        <v>47.86649398932682</v>
+        <v>49.63940029277509</v>
       </c>
     </row>
     <row r="78">
@@ -1909,13 +1909,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>33.27</v>
+        <v>33.244</v>
       </c>
       <c r="D78" t="n">
-        <v>119.9498572250595</v>
+        <v>126.6286472708121</v>
       </c>
       <c r="E78" t="n">
-        <v>45.56226245283197</v>
+        <v>44.50317245149413</v>
       </c>
     </row>
     <row r="79">
@@ -1928,13 +1928,13 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>47.596</v>
+        <v>47.7635</v>
       </c>
       <c r="D79" t="n">
-        <v>120.9817945249494</v>
+        <v>123.3320142059703</v>
       </c>
       <c r="E79" t="n">
-        <v>43.30912011875529</v>
+        <v>44.7755307856465</v>
       </c>
     </row>
   </sheetData>
